--- a/exercicios/2.2.exercicios-sstop/modelagem-sstop.xlsx
+++ b/exercicios/2.2.exercicios-sstop/modelagem-sstop.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF9F501-EED3-4740-A230-0FF20D05727F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sstop" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>IdGenero</t>
-  </si>
-  <si>
     <t>Artistas</t>
   </si>
   <si>
     <t>Estilos</t>
   </si>
   <si>
-    <t>IdEstilo</t>
-  </si>
-  <si>
     <t>Rock</t>
   </si>
   <si>
@@ -55,12 +50,15 @@
   </si>
   <si>
     <t>Madonna</t>
+  </si>
+  <si>
+    <t>IdEstiloMusical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,55 +491,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -550,15 +548,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -567,26 +565,26 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
